--- a/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
+++ b/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Tutorium\SBV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Tutorium\SBV\UE_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3DBF3D5-E7AF-4500-89A2-82F3129CE75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56D358-7435-48E8-A3E2-E7C4735D14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
     <sheet name="1b" sheetId="2" r:id="rId2"/>
+    <sheet name="2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
   <si>
     <t>Julian Buchgeher</t>
   </si>
@@ -157,35 +158,49 @@
     <t>Sehr gut dokumentiert!</t>
   </si>
   <si>
+    <t>Korrekturen echt aufwändig und super!</t>
+  </si>
+  <si>
+    <t>[-1] Monotones Bild (einfarbig) als guess nicht getestet?</t>
+  </si>
+  <si>
+    <t>[-1] Es existieren mehrere lokale Maxima rund um den Mittelpunkt: Warum nur einer entfernt bzw. asymmetrisch? Allgemein etwas wenig beschrieben.</t>
+  </si>
+  <si>
+    <t>[-1] Nur mit einem Bild getestet. 
+[-0.5] Nur Division durch 0 verhindert. Es können sich aber Werte &gt; 255 ergeben, die zu Artefakten/Overflows führen.</t>
+  </si>
+  <si>
+    <t>Sehr gut!</t>
+  </si>
+  <si>
+    <t>[-0.25] Anderes Bild: Was wurde verwendet?</t>
+  </si>
+  <si>
+    <t>[-1.5] Bei der HRV sind eigentlich nur die RR-Intervalle relevant, und nicht die Abstände zwischen allen Maxima/Minima und diese hier sinnvoll abzulesen ist schwierig.</t>
+  </si>
+  <si>
+    <t>Sehr ausführliche und gute Analyse!
+[-1.5] Die Antwort hier ist recht grob, bzw. großteils Antwort auf Teil a). Die HRV sollte wirklich genauer hergeleitet oder geplottet werden (z.B. RMSSD, bei ruhigem RESP)
+Es tut mir Leid, dass ihr hier so viel Aufwand hattet. Ein Teil ergibt sich wahrscheinlich dadurch, dass ihr nicht nur RESP, sondern auch EDA analysiert habt. Werde das Feedback  auch so weitergeben.</t>
+  </si>
+  <si>
+    <t>[-1.5] HRV sollte näher bzw. geplotted berechnet werden (z.B. RMSSD bei ruhigem RMSSD). Analyse für "Mit Bewegung" allgemein recht mager.</t>
+  </si>
+  <si>
+    <t>[-3] Hier wird nicht auf b) aufgebaut bzw. nichts berechnet/gezeigt/vermutet. Hier wäre verlangt gewesen, wirklich zu analysieren wie hoch die HRV in den Messungen ist.</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? Jeder Wert (4x) mit Gewichten multiplizieren + addieren!</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t>Nur kurz erklärt + richtig für in Bewegung?</t>
-  </si>
-  <si>
-    <t>Korrekturen echt aufwändig und super!</t>
-  </si>
-  <si>
-    <t>Schaut gut aus</t>
-  </si>
-  <si>
-    <t>[-1] Monotones Bild (einfarbig) als guess nicht getestet?</t>
-  </si>
-  <si>
-    <t>c etwas wenig?</t>
-  </si>
-  <si>
-    <t>Anderes Bild: Was wurde verwendet?</t>
-  </si>
-  <si>
-    <t>[-1] Es existieren mehrere lokale Maxima rund um den Mittelpunkt: Warum nur einer entfernt bzw. asymmetrisch? Allgemein etwas wenig beschrieben.</t>
-  </si>
-  <si>
-    <t>Mega ausführlich beschrieben, Analyse eher unübersichtlich?</t>
-  </si>
-  <si>
-    <t>[-1] Nur mit einem Bild getestet. Dadurch zeigt sich auch das Problem mit Nulldivision nicht (würde höchstwahrscheinlich bei anderen Bildern auffallen)
-[-0.5] Nur Division durch 0 verhindert. Es können sich aber Werte &gt; 255 ergeben, die zu Artefakten/Overflows führen.</t>
+    <t>b) Nur Zahlen-Bilder verwendet?</t>
   </si>
 </sst>
 </file>
@@ -266,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -288,6 +303,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,9 +315,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -616,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216AA612-AD3A-47AA-A21E-B3AB36ED0108}">
   <dimension ref="A1:AC16"/>
   <sheetViews>
-    <sheetView topLeftCell="G7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
@@ -646,40 +665,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="13">
+      <c r="B1" s="14">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="14">
+      <c r="H1" s="15">
         <v>1.2</v>
       </c>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="15">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16">
         <v>1.3</v>
       </c>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="14">
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="15">
         <v>1.4</v>
       </c>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="15">
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16">
         <v>1.5</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -2002,33 +2021,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{685DA3C3-B6A0-4A2F-BAD5-0A5D2E51AD69}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="25.42578125" style="2" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="17" max="17" width="30.5703125" customWidth="1"/>
+    <col min="12" max="16" width="8.85546875" style="2"/>
+    <col min="17" max="17" width="30.5703125" style="2" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="33.28515625" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B1">
+      <c r="B1" s="2">
         <v>1.5</v>
       </c>
       <c r="F1">
         <v>1.6</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>1.7</v>
       </c>
       <c r="R1">
@@ -2039,16 +2060,16 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F2" t="s">
@@ -2069,22 +2090,22 @@
       <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N2" t="s">
+      <c r="N2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O2" t="s">
+      <c r="O2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="R2" t="s">
@@ -2105,108 +2126,108 @@
       <c r="W2" t="s">
         <v>16</v>
       </c>
-      <c r="X2" t="s">
+      <c r="X2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16">
-        <v>4</v>
-      </c>
-      <c r="C3" s="16">
-        <v>4</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" s="4">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
         <f>SUM(B3)</f>
         <v>4</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="13">
         <v>8</v>
       </c>
-      <c r="G3" s="16">
-        <v>3</v>
-      </c>
-      <c r="H3" s="16">
-        <v>2</v>
-      </c>
-      <c r="I3" s="16">
+      <c r="G3" s="13">
+        <v>3</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13">
         <v>13</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="13">
         <f>F3+G3+H3</f>
         <v>13</v>
       </c>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16">
-        <v>2</v>
-      </c>
-      <c r="M3">
-        <v>6.5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="16">
+      <c r="K3" s="13"/>
+      <c r="L3" s="4">
+        <v>2</v>
+      </c>
+      <c r="M3" s="2">
+        <v>7</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O3" s="4">
         <v>12</v>
       </c>
-      <c r="P3" s="16" t="e">
+      <c r="P3" s="4">
         <f>L3+M3+N3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13">
+        <v>0</v>
+      </c>
+      <c r="V3" s="13">
         <f>R3+S3+T3</f>
         <v>0</v>
       </c>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16">
+      <c r="W3" s="13"/>
+      <c r="X3" s="4">
         <f>U3+O3+I3+C3</f>
         <v>29</v>
       </c>
-      <c r="Y3" s="16" t="e">
+      <c r="Y3" s="4">
         <f>V3+P3+J3+D3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z3" s="16" t="e">
-        <f>X3/Y3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA3" s="16"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+        <v>27.5</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>Y3/X3</f>
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="AA3" s="13"/>
+    </row>
+    <row r="4" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16">
-        <f t="shared" ref="D4:D15" si="0">SUM(B4)</f>
-        <v>0</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D13" si="0">SUM(B4)</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>8</v>
       </c>
       <c r="G4">
@@ -2215,537 +2236,769 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>13</v>
       </c>
-      <c r="J4" s="16">
-        <f t="shared" ref="J4:J15" si="1">F4+G4+H4</f>
+      <c r="J4" s="13">
+        <f t="shared" ref="J4:J13" si="1">F4+G4+H4</f>
         <v>13</v>
       </c>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16">
-        <v>2</v>
-      </c>
-      <c r="M4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" t="s">
-        <v>38</v>
-      </c>
-      <c r="O4" s="16">
+      <c r="K4" s="13"/>
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>7</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O4" s="4">
         <v>12</v>
       </c>
-      <c r="P4" s="16" t="e">
-        <f t="shared" ref="P4:P15" si="2">L4+M4+N4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q4" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="16">
+      <c r="P4" s="4">
+        <f t="shared" ref="P4:P13" si="2">L4+M4+N4</f>
+        <v>10.5</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="13">
         <v>10</v>
       </c>
-      <c r="S4" s="16">
-        <v>3</v>
-      </c>
-      <c r="T4" s="16">
-        <v>3</v>
-      </c>
-      <c r="U4" s="16">
+      <c r="S4" s="13">
+        <v>3</v>
+      </c>
+      <c r="T4" s="13">
+        <v>3</v>
+      </c>
+      <c r="U4" s="13">
         <v>16</v>
       </c>
-      <c r="V4" s="16">
+      <c r="V4" s="13">
         <f t="shared" ref="V4:V16" si="3">R4+S4+T4</f>
         <v>16</v>
       </c>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16">
-        <f t="shared" ref="X4:Y15" si="4">U4+O4+I4+C4</f>
+      <c r="W4" s="13"/>
+      <c r="X4" s="4">
+        <f t="shared" ref="X4:Y13" si="4">U4+O4+I4+C4</f>
         <v>41</v>
       </c>
-      <c r="Y4" s="16" t="e">
+      <c r="Y4" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z4" s="16" t="e">
-        <f t="shared" ref="Z4:Z15" si="5">X4/Y4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA4" s="16"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+        <v>39.5</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" ref="Z4:Z15" si="5">Y4/X4</f>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="AA4" s="13"/>
+    </row>
+    <row r="5" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="16"/>
-      <c r="U5" s="16"/>
-      <c r="V5" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="16"/>
-      <c r="X5" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16" t="e">
+      <c r="B5" s="4">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" ref="C5:Y5" si="6">C3</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="E5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>Sehr gut dokumentiert!</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="H5" s="13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="6"/>
+        <v>1.5</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="P5" s="4">
+        <f t="shared" si="6"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q5" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>[-1.5] HRV sollte näher bzw. geplotted berechnet werden (z.B. RMSSD bei ruhigem RMSSD). Analyse für "Mit Bewegung" allgemein recht mager.</v>
+      </c>
+      <c r="R5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="6"/>
+        <v>27.5</v>
+      </c>
+      <c r="Z5" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA5" s="16"/>
-    </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="AA5" s="13"/>
+    </row>
+    <row r="6" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="16">
-        <v>4</v>
-      </c>
-      <c r="C6" s="16">
-        <v>4</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="4">
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16">
+      <c r="E6" s="4"/>
+      <c r="F6" s="13">
         <v>8</v>
       </c>
-      <c r="G6" s="16">
-        <v>3</v>
-      </c>
-      <c r="I6" s="16">
+      <c r="G6" s="13">
+        <v>3</v>
+      </c>
+      <c r="I6" s="13">
         <v>11</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="13">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16">
-        <v>2</v>
-      </c>
-      <c r="M6">
+      <c r="K6" s="13"/>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="2">
         <v>7</v>
       </c>
-      <c r="N6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O6" s="16">
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4">
         <v>12</v>
       </c>
-      <c r="P6" s="16" t="e">
+      <c r="P6" s="4">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" s="13">
         <v>10</v>
       </c>
-      <c r="S6" s="16">
-        <v>3</v>
-      </c>
-      <c r="T6" s="16">
-        <v>3</v>
-      </c>
-      <c r="U6" s="16">
+      <c r="S6" s="13">
+        <v>2.75</v>
+      </c>
+      <c r="T6" s="13">
+        <v>3</v>
+      </c>
+      <c r="U6" s="13">
         <v>16</v>
       </c>
-      <c r="V6" s="16">
+      <c r="V6" s="13">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="W6" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="X6" s="16">
+        <v>15.75</v>
+      </c>
+      <c r="W6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="X6" s="4">
         <f>U6+O6+I6+C6</f>
         <v>43</v>
       </c>
-      <c r="Y6" s="16" t="e">
+      <c r="Y6" s="4">
         <f>V6+P6+J6+D6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z6" s="16" t="e">
+        <v>39.75</v>
+      </c>
+      <c r="Z6" s="4">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" s="16"/>
+        <v>0.92441860465116277</v>
+      </c>
+      <c r="AA6" s="13"/>
     </row>
     <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16">
-        <v>4</v>
-      </c>
-      <c r="C7" s="16">
-        <v>4</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4</v>
+      </c>
+      <c r="D7" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="E7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="16">
+      <c r="E7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="13">
         <v>8</v>
       </c>
-      <c r="G7" s="16">
-        <v>3</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" s="16">
+      <c r="G7" s="13">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="13">
         <v>13</v>
       </c>
-      <c r="J7" s="16" t="e">
+      <c r="J7" s="13">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16">
-        <v>2</v>
-      </c>
-      <c r="M7">
+        <v>13</v>
+      </c>
+      <c r="K7" s="13"/>
+      <c r="L7" s="4">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
         <v>7</v>
       </c>
-      <c r="N7" t="s">
-        <v>38</v>
-      </c>
-      <c r="O7" s="16">
+      <c r="N7" s="2">
+        <v>3</v>
+      </c>
+      <c r="O7" s="4">
         <v>12</v>
       </c>
-      <c r="P7" s="16" t="e">
+      <c r="P7" s="4">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="R7" s="16">
+        <v>12</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R7" s="13">
         <v>10</v>
       </c>
-      <c r="S7" s="16">
-        <v>2</v>
-      </c>
-      <c r="T7" s="16">
-        <v>3</v>
-      </c>
-      <c r="U7" s="16">
+      <c r="S7" s="13">
+        <v>2</v>
+      </c>
+      <c r="T7" s="13">
+        <v>3</v>
+      </c>
+      <c r="U7" s="13">
         <v>16</v>
       </c>
-      <c r="V7" s="16">
+      <c r="V7" s="13">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="W7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="X7" s="16">
+      <c r="W7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="Y7" s="16" t="e">
+      <c r="Y7" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z7" s="16" t="e">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="4">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="16"/>
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="AA7" s="13"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16">
+      <c r="E8" s="4"/>
+      <c r="F8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16">
+      <c r="K8" s="13"/>
+      <c r="L8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="16"/>
-      <c r="V8" s="16">
+      <c r="Q8" s="4"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W8" s="16"/>
-      <c r="X8" s="16">
+      <c r="W8" s="13"/>
+      <c r="X8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y8" s="16">
+      <c r="Y8" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z8" s="16" t="e">
+      <c r="Z8" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="16"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA8" s="13"/>
+    </row>
+    <row r="9" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W9" s="16"/>
-      <c r="X9" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16" t="e">
+      <c r="B9" s="4">
+        <f>B7</f>
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:Y9" si="7">C7</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Korrekturen echt aufwändig und super!</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="G9" s="13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="H9" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="J9" s="13">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="K9" s="13">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="7"/>
+        <v>12</v>
+      </c>
+      <c r="Q9" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>Sehr gut!</v>
+      </c>
+      <c r="R9" s="13">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+      <c r="S9" s="13">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="T9" s="13">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="U9" s="13">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="V9" s="13">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="W9" s="13" t="str">
+        <f t="shared" si="7"/>
+        <v>[-1] Monotones Bild (einfarbig) als guess nicht getestet?</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="7"/>
+        <v>45</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="7"/>
+        <v>44</v>
+      </c>
+      <c r="Z9" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA9" s="16"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="AA9" s="13"/>
+    </row>
+    <row r="10" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16" t="e">
+      <c r="B10" s="4">
+        <f>B4</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:Y10" si="8">C4</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>1a</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="H10" s="13">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="J10" s="13">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="K10" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="8"/>
+        <v>1.5</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="8"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q10" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>[-1.5] Bei der HRV sind eigentlich nur die RR-Intervalle relevant, und nicht die Abstände zwischen allen Maxima/Minima und diese hier sinnvoll abzulesen ist schwierig.</v>
+      </c>
+      <c r="R10" s="13">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="S10" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="T10" s="13">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="U10" s="13">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="V10" s="13">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="W10" s="13">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="8"/>
+        <v>41</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="8"/>
+        <v>39.5</v>
+      </c>
+      <c r="Z10" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA10" s="16"/>
+        <v>0.96341463414634143</v>
+      </c>
+      <c r="AA10" s="13"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16">
+      <c r="E11" s="4"/>
+      <c r="F11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
+      <c r="K11" s="13"/>
+      <c r="L11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16">
+      <c r="Q11" s="4"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="W11" s="16"/>
-      <c r="X11" s="16">
+      <c r="W11" s="13"/>
+      <c r="X11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="Y11" s="4">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="Z11" s="16" t="e">
+      <c r="Z11" s="4" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA11" s="16"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA11" s="13"/>
+    </row>
+    <row r="12" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="16" t="e">
+      <c r="B12" s="4">
+        <f>B6</f>
+        <v>4</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:Y12" si="9">C6</f>
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="G12" s="13">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="H12" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="J12" s="13">
+        <f t="shared" si="9"/>
+        <v>11</v>
+      </c>
+      <c r="K12" s="13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+      <c r="Q12" s="4" t="str">
+        <f>Q6</f>
+        <v>[-3] Hier wird nicht auf b) aufgebaut bzw. nichts berechnet/gezeigt/vermutet. Hier wäre verlangt gewesen, wirklich zu analysieren wie hoch die HRV in den Messungen ist.</v>
+      </c>
+      <c r="R12" s="13">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="S12" s="13">
+        <f t="shared" si="9"/>
+        <v>2.75</v>
+      </c>
+      <c r="T12" s="13">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="U12" s="13">
+        <f t="shared" si="9"/>
+        <v>16</v>
+      </c>
+      <c r="V12" s="13">
+        <f t="shared" si="9"/>
+        <v>15.75</v>
+      </c>
+      <c r="W12" s="13" t="str">
+        <f>W6</f>
+        <v>[-0.25] Anderes Bild: Was wurde verwendet?</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="9"/>
+        <v>43</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="9"/>
+        <v>39.75</v>
+      </c>
+      <c r="Z12" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA12" s="16"/>
-    </row>
-    <row r="13" spans="1:27" ht="135" x14ac:dyDescent="0.25">
+        <v>0.92441860465116277</v>
+      </c>
+      <c r="AA12" s="13"/>
+    </row>
+    <row r="13" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="16">
-        <v>3</v>
-      </c>
-      <c r="C13" s="16">
-        <v>4</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="16">
+      <c r="E13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="13">
         <v>8</v>
       </c>
       <c r="G13">
@@ -2754,168 +3007,286 @@
       <c r="H13">
         <v>2</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <v>13</v>
       </c>
-      <c r="J13" s="16">
+      <c r="J13" s="13">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16">
-        <v>2</v>
-      </c>
-      <c r="M13" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" t="s">
-        <v>38</v>
-      </c>
-      <c r="O13" s="16">
+      <c r="K13" s="13"/>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="2">
+        <v>7</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="O13" s="4">
         <v>12</v>
       </c>
-      <c r="P13" s="16" t="e">
+      <c r="P13" s="4">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Q13" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R13" s="16">
+        <v>10.5</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="R13" s="13">
         <v>10</v>
       </c>
-      <c r="S13" s="16">
-        <v>2</v>
-      </c>
-      <c r="T13" s="16">
+      <c r="S13" s="13">
+        <v>2</v>
+      </c>
+      <c r="T13" s="13">
         <v>2.5</v>
       </c>
-      <c r="U13" s="16">
+      <c r="U13" s="13">
         <v>16</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="13">
         <f t="shared" si="3"/>
         <v>14.5</v>
       </c>
-      <c r="W13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="X13" s="16">
+      <c r="W13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="X13" s="4">
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="Y13" s="16" t="e">
+      <c r="Y13" s="4">
         <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="Z13" s="16" t="e">
+        <v>41</v>
+      </c>
+      <c r="Z13" s="4">
         <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA13" s="16"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="AA13" s="13"/>
+    </row>
+    <row r="14" spans="1:27" ht="90" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="I14" s="16"/>
-      <c r="J14" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="16"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="X14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="16" t="e">
+      <c r="B14" s="4">
+        <f>B3</f>
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:Y14" si="10">C3</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>Sehr gut dokumentiert!</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="13">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="13">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="J14" s="13">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="10"/>
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="10"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q14" s="4" t="str">
+        <f t="shared" si="10"/>
+        <v>[-1.5] HRV sollte näher bzw. geplotted berechnet werden (z.B. RMSSD bei ruhigem RMSSD). Analyse für "Mit Bewegung" allgemein recht mager.</v>
+      </c>
+      <c r="R14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X14" s="4">
+        <f t="shared" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="Y14" s="4">
+        <f t="shared" si="10"/>
+        <v>27.5</v>
+      </c>
+      <c r="Z14" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA14" s="16"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+        <v>0.94827586206896552</v>
+      </c>
+      <c r="AA14" s="13"/>
+    </row>
+    <row r="15" spans="1:27" ht="255" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
-      <c r="S15" s="16"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="16">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="W15" s="16"/>
-      <c r="X15" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Y15" s="16">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z15" s="16" t="e">
+      <c r="B15" s="4">
+        <f>B13</f>
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:Y15" si="11">C13</f>
+        <v>4</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>E13</f>
+        <v>[-1] Es existieren mehrere lokale Maxima rund um den Mittelpunkt: Warum nur einer entfernt bzw. asymmetrisch? Allgemein etwas wenig beschrieben.</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H15" s="13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="J15" s="13">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="K15" s="13">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="11"/>
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="11"/>
+        <v>10.5</v>
+      </c>
+      <c r="Q15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>Sehr ausführliche und gute Analyse!
+[-1.5] Die Antwort hier ist recht grob, bzw. großteils Antwort auf Teil a). Die HRV sollte wirklich genauer hergeleitet oder geplottet werden (z.B. RMSSD, bei ruhigem RESP)
+Es tut mir Leid, dass ihr hier so viel Aufwand hattet. Ein Teil ergibt sich wahrscheinlich dadurch, dass ihr nicht nur RESP, sondern auch EDA analysiert habt. Werde das Feedback  auch so weitergeben.</v>
+      </c>
+      <c r="R15" s="13">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="S15" s="13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="T15" s="13">
+        <f t="shared" si="11"/>
+        <v>2.5</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" si="11"/>
+        <v>14.5</v>
+      </c>
+      <c r="W15" s="13" t="str">
+        <f t="shared" si="11"/>
+        <v>[-1] Nur mit einem Bild getestet. 
+[-0.5] Nur Division durch 0 verhindert. Es können sich aber Werte &gt; 255 ergeben, die zu Artefakten/Overflows führen.</v>
+      </c>
+      <c r="X15" s="4">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="Y15" s="4">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="Z15" s="4">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA15" s="16"/>
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="AA15" s="13"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>4</v>
       </c>
       <c r="F16">
@@ -2930,13 +3301,13 @@
       <c r="I16">
         <v>13</v>
       </c>
-      <c r="L16">
-        <v>2</v>
-      </c>
-      <c r="M16">
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2">
         <v>7</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="2">
         <v>3</v>
       </c>
       <c r="R16">
@@ -2951,10 +3322,704 @@
       <c r="U16">
         <v>16</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="13">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802ED939-0510-445F-BF6B-16C81A4A9779}">
+  <dimension ref="A1:X16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" style="13" customWidth="1"/>
+    <col min="13" max="18" width="9.140625" style="2"/>
+    <col min="19" max="19" width="30.5703125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="H1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M1" s="2">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="V2" s="18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4">
+        <f>B3+C3+D3</f>
+        <v>14.5</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="13">
+        <v>15</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" s="4">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2">
+        <v>8</v>
+      </c>
+      <c r="O3" s="2">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="T3" s="17">
+        <f>Q3+J3+E3</f>
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <f>R3+K3+F3</f>
+        <v>14.5</v>
+      </c>
+      <c r="V3" s="17" t="e">
+        <f>U3/T3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W3" s="13"/>
+      <c r="X3" s="13"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F15" si="0">B4+C4+D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="M4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="T4" s="17">
+        <f t="shared" ref="T4:T15" si="1">Q4+J4+E4</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="17">
+        <f t="shared" ref="U4:U15" si="2">R4+K4+F4</f>
+        <v>0</v>
+      </c>
+      <c r="V4" s="17" t="e">
+        <f t="shared" ref="V4:V15" si="3">U4/T4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="T5" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="M6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="T6" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="M7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="T7" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="M8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="T8" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="T9" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="T10" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="M11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="T12" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="M13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="T13" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+    </row>
+    <row r="14" spans="1:24" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B3</f>
+        <v>6</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" ref="C14:S14" si="4">C3</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="4"/>
+        <v>14.5</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="4"/>
+        <v>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? Jeder Wert (4x) mit Gewichten multiplizieren + addieren!</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>?</v>
+      </c>
+      <c r="J14" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="17" t="str">
+        <f t="shared" si="4"/>
+        <v>b) Nur Zahlen-Bilder verwendet?</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U14" s="17">
+        <f t="shared" si="2"/>
+        <v>14.5</v>
+      </c>
+      <c r="V14" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="T15" s="17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="17" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6</v>
+      </c>
+      <c r="D16" s="2">
+        <v>3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>15</v>
+      </c>
+      <c r="H16" s="18">
+        <v>15</v>
+      </c>
+      <c r="I16" s="18">
+        <v>20</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="M16" s="2">
+        <v>5</v>
+      </c>
+      <c r="N16" s="2">
+        <v>8</v>
+      </c>
+      <c r="O16" s="2">
+        <v>6</v>
+      </c>
+      <c r="P16" s="2">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>25</v>
+      </c>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
+++ b/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Tutorium\SBV\UE_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F56D358-7435-48E8-A3E2-E7C4735D14C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB3BC3-D6F6-417D-89D3-18AF9C82269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
   <si>
     <t>Julian Buchgeher</t>
   </si>
@@ -194,13 +194,31 @@
     <t>d</t>
   </si>
   <si>
-    <t>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? Jeder Wert (4x) mit Gewichten multiplizieren + addieren!</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>b) Nur Zahlen-Bilder verwendet?</t>
+  </si>
+  <si>
+    <t>Vergleich über Filegröße?</t>
+  </si>
+  <si>
+    <t>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
+[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied und auch nirgends die Größe in px.</t>
+  </si>
+  <si>
+    <t>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? 3x mit Gewichten multiplizieren + addieren!</t>
+  </si>
+  <si>
+    <t>Nur theoretisch? Filegröße?</t>
+  </si>
+  <si>
+    <t>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
+d) [-3] Entropie nicht berechnet
+[-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</t>
+  </si>
+  <si>
+    <t>a) [-0.5] Wie kommt ihr auf komprimierte Länge = 20 Zeichen? Wenn man oben die Zeichen zählt, ergeben sich 16? Ansonsten richtig gerechnet!
+b) [-0.5] Warum mit 200 bit (1 Byte je Char) verglichen und nicht mit den errechneten 50? Das wäre der eigentliche richtige Vergleich.
+c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432 = 666633...)
+d) Bitte die richtigen Worte verwenden: Variablen=Zeichen? Clustering=Homogenität?</t>
   </si>
 </sst>
 </file>
@@ -306,6 +324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -315,10 +337,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -665,40 +683,40 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="14">
+      <c r="B1" s="16">
         <v>1.1000000000000001</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="6"/>
       <c r="G1" s="7"/>
-      <c r="H1" s="15">
+      <c r="H1" s="17">
         <v>1.2</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="18">
         <v>1.3</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="15">
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="17">
         <v>1.4</v>
       </c>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16">
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18">
         <v>1.5</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
       <c r="Z1" s="5"/>
       <c r="AA1" s="5"/>
       <c r="AB1" s="5"/>
@@ -3340,100 +3358,102 @@
   <dimension ref="A1:X16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="2"/>
+    <col min="2" max="6" width="9.140625" style="4"/>
     <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.85546875" style="13" customWidth="1"/>
-    <col min="13" max="18" width="9.140625" style="2"/>
+    <col min="8" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="14"/>
+    <col min="12" max="12" width="30.85546875" style="14" customWidth="1"/>
+    <col min="13" max="18" width="9.140625" style="4"/>
     <col min="19" max="19" width="30.5703125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B1" s="2">
+      <c r="B1" s="4">
         <v>2.1</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="14">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="4">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="4" t="s">
         <v>21</v>
       </c>
       <c r="S2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3450,156 +3470,266 @@
       <c r="D3" s="4">
         <v>2.5</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <v>15</v>
+      </c>
       <c r="F3" s="4">
         <f>B3+C3+D3</f>
         <v>14.5</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="H3" s="14">
+        <v>15</v>
+      </c>
+      <c r="I3" s="14">
+        <v>20</v>
+      </c>
+      <c r="J3" s="14">
+        <v>35</v>
+      </c>
+      <c r="K3" s="14">
+        <f>H3+I3</f>
+        <v>35</v>
+      </c>
+      <c r="L3" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="H3" s="13">
-        <v>15</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="M3" s="4">
         <v>5</v>
       </c>
-      <c r="N3" s="2">
+      <c r="N3" s="4">
         <v>8</v>
       </c>
-      <c r="O3" s="2">
+      <c r="O3" s="4">
         <v>6</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P3" s="4">
         <v>6</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="T3" s="17">
+      <c r="Q3" s="4">
+        <v>25</v>
+      </c>
+      <c r="R3" s="4">
+        <f>SUM(M3:P3)</f>
+        <v>25</v>
+      </c>
+      <c r="T3" s="14">
         <f>Q3+J3+E3</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="17">
+        <v>75</v>
+      </c>
+      <c r="U3" s="14">
         <f>R3+K3+F3</f>
-        <v>14.5</v>
-      </c>
-      <c r="V3" s="17" t="e">
+        <v>74.5</v>
+      </c>
+      <c r="V3" s="14">
         <f>U3/T3</f>
-        <v>#DIV/0!</v>
+        <v>0.99333333333333329</v>
       </c>
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="B4" s="4">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>15</v>
+      </c>
       <c r="F4" s="4">
         <f t="shared" ref="F4:F15" si="0">B4+C4+D4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="M4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="T4" s="17">
-        <f t="shared" ref="T4:T15" si="1">Q4+J4+E4</f>
-        <v>0</v>
-      </c>
-      <c r="U4" s="17">
-        <f t="shared" ref="U4:U15" si="2">R4+K4+F4</f>
-        <v>0</v>
-      </c>
-      <c r="V4" s="17" t="e">
-        <f t="shared" ref="V4:V15" si="3">U4/T4</f>
-        <v>#DIV/0!</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="14">
+        <v>15</v>
+      </c>
+      <c r="I4" s="14">
+        <v>20</v>
+      </c>
+      <c r="J4" s="14">
+        <v>35</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4:K14" si="1">H4+I4</f>
+        <v>35</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="4">
+        <v>5</v>
+      </c>
+      <c r="N4" s="4">
+        <v>8</v>
+      </c>
+      <c r="O4" s="4">
+        <v>6</v>
+      </c>
+      <c r="P4" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>25</v>
+      </c>
+      <c r="R4" s="4">
+        <f t="shared" ref="R4:R14" si="2">SUM(M4:P4)</f>
+        <v>25</v>
+      </c>
+      <c r="T4" s="14">
+        <f t="shared" ref="T4:T15" si="3">Q4+J4+E4</f>
+        <v>75</v>
+      </c>
+      <c r="U4" s="14">
+        <f t="shared" ref="U4:U15" si="4">R4+K4+F4</f>
+        <v>73</v>
+      </c>
+      <c r="V4" s="14">
+        <f t="shared" ref="V4:V15" si="5">U4/T4</f>
+        <v>0.97333333333333338</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="390" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="T5" s="17">
+      <c r="H5" s="14">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14">
+        <v>20</v>
+      </c>
+      <c r="J5" s="14">
+        <v>35</v>
+      </c>
+      <c r="K5" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="17">
+        <v>35</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="N5" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>25</v>
+      </c>
+      <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V5" s="17" t="e">
+        <v>15</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T5" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>60</v>
+      </c>
+      <c r="U5" s="14">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="V5" s="14">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="4">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>15</v>
+      </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="M6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="T6" s="17">
+        <v>15</v>
+      </c>
+      <c r="H6" s="14">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14">
+        <v>20</v>
+      </c>
+      <c r="J6" s="14">
+        <v>35</v>
+      </c>
+      <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
+        <v>35</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="4">
+        <v>5</v>
+      </c>
+      <c r="N6" s="4">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4">
+        <v>6</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>25</v>
+      </c>
+      <c r="R6" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>20.5</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="T6" s="14">
+        <f>Q6+J6+E6</f>
+        <v>75</v>
+      </c>
+      <c r="U6" s="14">
+        <f t="shared" si="4"/>
+        <v>70.5</v>
+      </c>
+      <c r="V6" s="14">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
       </c>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
@@ -3608,31 +3738,28 @@
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="M7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="T7" s="17">
+      <c r="K7" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U7" s="17">
+      <c r="R7" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V7" s="17" t="e">
+      <c r="T7" s="14">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="14" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W7" s="13"/>
@@ -3642,30 +3769,28 @@
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
       <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="M8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="T8" s="17">
+      <c r="K8" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U8" s="17">
+      <c r="R8" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V8" s="17" t="e">
+      <c r="T8" s="14">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="14" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W8" s="13"/>
@@ -3675,72 +3800,184 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="4">
+        <f>B5</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="4">
+        <f t="shared" ref="C9:S9" si="6">C5</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="T9" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="J9" s="14">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="6"/>
+        <v>4.5</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="6"/>
+        <v>7.5</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P9" s="4">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="4">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="R9" s="4">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="S9" s="4" t="str">
+        <f t="shared" si="6"/>
+        <v>a) [-0.5] Wie kommt ihr auf komprimierte Länge = 20 Zeichen? Wenn man oben die Zeichen zählt, ergeben sich 16? Ansonsten richtig gerechnet!
+b) [-0.5] Warum mit 200 bit (1 Byte je Char) verglichen und nicht mit den errechneten 50? Das wäre der eigentliche richtige Vergleich.
+c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432 = 666633...)
+d) Bitte die richtigen Worte verwenden: Variablen=Zeichen? Clustering=Homogenität?</v>
+      </c>
+      <c r="T9" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>60</v>
+      </c>
+      <c r="U9" s="14">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="V9" s="14">
+        <f t="shared" si="5"/>
+        <v>0.83333333333333337</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="165" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="4">
+        <f>B4</f>
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" ref="C10:S10" si="7">C4</f>
+        <v>4</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
       <c r="F10" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="T10" s="17">
+        <f t="shared" si="7"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="4" t="str">
+        <f t="shared" si="7"/>
+        <v>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
+[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied und auch nirgends die Größe in px.</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="7"/>
+        <v>15</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" si="7"/>
+        <v>20</v>
+      </c>
+      <c r="J10" s="14">
+        <f t="shared" si="7"/>
+        <v>35</v>
+      </c>
+      <c r="K10" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="17">
+        <v>35</v>
+      </c>
+      <c r="L10" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>Vergleich über Filegröße?</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="P10" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q10" s="4">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="R10" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="17" t="e">
+        <v>25</v>
+      </c>
+      <c r="S10" s="4">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>75</v>
+      </c>
+      <c r="U10" s="14">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="V10" s="14">
+        <f t="shared" si="5"/>
+        <v>0.97333333333333338</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
@@ -3749,68 +3986,122 @@
       <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
       <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="M11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="17">
+      <c r="K11" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U11" s="17">
+      <c r="R11" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V11" s="17" t="e">
+      <c r="T11" s="14">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U11" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="14" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="4">
+        <f>B6</f>
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <f t="shared" ref="C12:S12" si="8">C6</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
       <c r="F12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="T12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="17">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="4">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J12" s="14">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="L12" s="14" t="str">
+        <f t="shared" si="8"/>
+        <v>Nur theoretisch? Filegröße?</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P12" s="4">
+        <f t="shared" si="8"/>
+        <v>2.5</v>
+      </c>
+      <c r="Q12" s="4">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="R12" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="17" t="e">
+        <v>20.5</v>
+      </c>
+      <c r="S12" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
+d) [-3] Entropie nicht berechnet
+[-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</v>
+      </c>
+      <c r="T12" s="14">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>75</v>
+      </c>
+      <c r="U12" s="14">
+        <f t="shared" si="4"/>
+        <v>70.5</v>
+      </c>
+      <c r="V12" s="14">
+        <f t="shared" si="5"/>
+        <v>0.94</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
@@ -3819,30 +4110,28 @@
       <c r="A13" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="M13" s="4"/>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="4"/>
-      <c r="T13" s="17">
+      <c r="K13" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="U13" s="17">
+      <c r="R13" s="4">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="V13" s="17" t="e">
+      <c r="T13" s="14">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="14" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W13" s="13"/>
@@ -3857,84 +4146,84 @@
         <v>6</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:S14" si="4">C3</f>
+        <f t="shared" ref="C14:S14" si="9">C3</f>
         <v>6</v>
       </c>
       <c r="D14" s="4">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="9"/>
+        <v>14.5</v>
+      </c>
+      <c r="G14" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? 3x mit Gewichten multiplizieren + addieren!</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="9"/>
+        <v>15</v>
+      </c>
+      <c r="I14" s="14">
+        <f t="shared" si="9"/>
+        <v>20</v>
+      </c>
+      <c r="J14" s="14">
+        <f t="shared" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="K14" s="14">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="L14" s="14" t="str">
+        <f t="shared" si="9"/>
+        <v>b) Nur Zahlen-Bilder verwendet?</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="O14" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="P14" s="4">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="4">
+        <f t="shared" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="R14" s="4">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="S14" s="4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="14">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>2.5</v>
-      </c>
-      <c r="E14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <f t="shared" si="4"/>
-        <v>14.5</v>
-      </c>
-      <c r="G14" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? Jeder Wert (4x) mit Gewichten multiplizieren + addieren!</v>
-      </c>
-      <c r="H14" s="17">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="I14" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>?</v>
-      </c>
-      <c r="J14" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="L14" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v>b) Nur Zahlen-Bilder verwendet?</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="N14" s="4">
-        <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="O14" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="P14" s="4">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Q14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="T14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U14" s="17">
-        <f t="shared" si="2"/>
-        <v>14.5</v>
-      </c>
-      <c r="V14" s="17" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>74.5</v>
+      </c>
+      <c r="V14" s="14">
+        <f t="shared" si="5"/>
+        <v>0.99333333333333329</v>
       </c>
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
@@ -3943,34 +4232,20 @@
       <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
       <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="T15" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="17" t="e">
+      <c r="T15" s="14">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="14" t="e">
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W15" s="13"/>
@@ -3980,45 +4255,45 @@
       <c r="A16" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="4">
         <v>6</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="4">
         <v>6</v>
       </c>
-      <c r="D16" s="2">
-        <v>3</v>
-      </c>
-      <c r="E16" s="2">
+      <c r="D16" s="4">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
         <v>15</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="14">
         <v>15</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="14">
         <v>20</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="14">
         <v>15</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="4">
         <v>5</v>
       </c>
-      <c r="N16" s="2">
+      <c r="N16" s="4">
         <v>8</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="4">
         <v>6</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="4">
         <v>6</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="4">
         <v>25</v>
       </c>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
       <c r="W16" s="13"/>
     </row>
   </sheetData>

--- a/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
+++ b/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Tutorium\SBV\UE_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ABB3BC3-D6F6-417D-89D3-18AF9C82269D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1D336-5C10-4F19-997A-FA1569A03C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
+    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
   <si>
     <t>Julian Buchgeher</t>
   </si>
@@ -194,20 +194,11 @@
     <t>d</t>
   </si>
   <si>
-    <t>b) Nur Zahlen-Bilder verwendet?</t>
-  </si>
-  <si>
-    <t>Vergleich über Filegröße?</t>
-  </si>
-  <si>
     <t>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
 [-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied und auch nirgends die Größe in px.</t>
   </si>
   <si>
     <t>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? 3x mit Gewichten multiplizieren + addieren!</t>
-  </si>
-  <si>
-    <t>Nur theoretisch? Filegröße?</t>
   </si>
   <si>
     <t>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
@@ -215,10 +206,31 @@
 [-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</t>
   </si>
   <si>
+    <t>b) [-2] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit xRatio (valueA) und einmal mit 1 - xRatio (valueB) sodass die Gewichte auf 1.00 summieren. Außerdem: Warum valueB-valueC bzw. valueD-valueC? Gleiches bei yInterpol. Ansonsten aber korrekter Aufbau!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) [-1.5] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit dem Gewicht (XB,YA) und einmal mit 1 - Gewicht (XA,YA) sodass die Gewichte auf 1.00 summieren. </t>
+  </si>
+  <si>
     <t>a) [-0.5] Wie kommt ihr auf komprimierte Länge = 20 Zeichen? Wenn man oben die Zeichen zählt, ergeben sich 16? Ansonsten richtig gerechnet!
 b) [-0.5] Warum mit 200 bit (1 Byte je Char) verglichen und nicht mit den errechneten 50? Das wäre der eigentliche richtige Vergleich.
-c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432 = 666633...)
+c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432... = 666633...)
 d) Bitte die richtigen Worte verwenden: Variablen=Zeichen? Clustering=Homogenität?</t>
+  </si>
+  <si>
+    <t>b) [-1] Maximale Kompressionsrate bei Huffman-Encoding ist wenn nur ein Buchstabe verwendet wird, bei größerem Alphabet.
+c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine Lösung wäre z.B. das Zeichen zusätzlich zur Anzahl anzugeben. z.B. 6432... = 666633...
+d) Log10 statt Log2 verwendet, ansonsten korrekt. Richtiges Ergebnis wäre ~2.3 und nicht 0.69.</t>
+  </si>
+  <si>
+    <t>b) [-1] Beim Differenzbild kommt es zum Underflow, wodurch das Ergebnis stark verfälscht wird. Man müsste den Betrag der Differenz nehmen. (-1 wird sonst z.B. zu 255 --&gt; total weiß, trotz kleiner Änderung)
+Sonst sehr gute Visualisierung mit Zoom!</t>
+  </si>
+  <si>
+    <t>b) [-0.5] Mittlere Codewortlänge leicht falsch: c benötigt 3 bit, und damit 3 * 0,08 --&gt; insgesamt also 1,8 mittlere Codewortlänge.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b) [-10] Nur theoretisch? </t>
   </si>
 </sst>
 </file>
@@ -3357,20 +3369,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802ED939-0510-445F-BF6B-16C81A4A9779}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" customWidth="1"/>
-    <col min="2" max="6" width="9.140625" style="4"/>
+    <col min="2" max="5" width="9.140625" style="4"/>
+    <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
     <col min="7" max="7" width="25.42578125" style="4" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="14"/>
     <col min="9" max="9" width="11.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="9.140625" style="14"/>
+    <col min="10" max="10" width="9.140625" style="14"/>
+    <col min="11" max="11" width="11.7109375" style="14" customWidth="1"/>
     <col min="12" max="12" width="30.85546875" style="14" customWidth="1"/>
-    <col min="13" max="18" width="9.140625" style="4"/>
+    <col min="13" max="17" width="9.140625" style="4"/>
+    <col min="18" max="18" width="11.28515625" style="4" customWidth="1"/>
     <col min="19" max="19" width="30.5703125" style="4" customWidth="1"/>
     <col min="20" max="20" width="14.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="14.85546875" style="15" bestFit="1" customWidth="1"/>
@@ -3478,7 +3493,7 @@
         <v>14.5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H3" s="14">
         <v>15</v>
@@ -3493,9 +3508,6 @@
         <f>H3+I3</f>
         <v>35</v>
       </c>
-      <c r="L3" s="14" t="s">
-        <v>49</v>
-      </c>
       <c r="M3" s="4">
         <v>5</v>
       </c>
@@ -3547,11 +3559,11 @@
         <v>15</v>
       </c>
       <c r="F4" s="4">
-        <f t="shared" ref="F4:F15" si="0">B4+C4+D4</f>
+        <f t="shared" ref="F4:F13" si="0">B4+C4+D4</f>
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H4" s="14">
         <v>15</v>
@@ -3566,9 +3578,6 @@
         <f t="shared" ref="K4:K14" si="1">H4+I4</f>
         <v>35</v>
       </c>
-      <c r="L4" s="14" t="s">
-        <v>50</v>
-      </c>
       <c r="M4" s="4">
         <v>5</v>
       </c>
@@ -3585,15 +3594,15 @@
         <v>25</v>
       </c>
       <c r="R4" s="4">
-        <f t="shared" ref="R4:R14" si="2">SUM(M4:P4)</f>
+        <f t="shared" ref="R4:R15" si="2">SUM(M4:P4)</f>
         <v>25</v>
       </c>
       <c r="T4" s="14">
-        <f t="shared" ref="T4:T15" si="3">Q4+J4+E4</f>
+        <f t="shared" ref="T4:T14" si="3">Q4+J4+E4</f>
         <v>75</v>
       </c>
       <c r="U4" s="14">
-        <f t="shared" ref="U4:U15" si="4">R4+K4+F4</f>
+        <f t="shared" ref="U4:U14" si="4">R4+K4+F4</f>
         <v>73</v>
       </c>
       <c r="V4" s="14">
@@ -3636,15 +3645,18 @@
       <c r="O5" s="4">
         <v>3</v>
       </c>
+      <c r="P5" s="4">
+        <v>6</v>
+      </c>
       <c r="Q5" s="4">
         <v>25</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" si="3"/>
@@ -3652,16 +3664,16 @@
       </c>
       <c r="U5" s="14">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V5" s="14">
         <f t="shared" si="5"/>
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
     </row>
-    <row r="6" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -3681,21 +3693,24 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="H6" s="14">
         <v>15</v>
       </c>
       <c r="I6" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J6" s="14">
         <v>35</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M6" s="4">
         <v>5</v>
@@ -3717,50 +3732,92 @@
         <v>20.5</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T6" s="14">
-        <f>Q6+J6+E6</f>
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>60.5</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="5"/>
-        <v>0.94</v>
+        <v>0.80666666666666664</v>
       </c>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4">
+        <v>5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>15</v>
+      </c>
       <c r="F7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="14">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14">
+        <v>20</v>
+      </c>
+      <c r="J7" s="14">
+        <v>35</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="M7" s="4">
+        <v>5</v>
+      </c>
+      <c r="N7" s="4">
+        <v>7.5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6</v>
+      </c>
+      <c r="P7" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>25</v>
       </c>
       <c r="R7" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>24.5</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="14" t="e">
+        <v>73.5</v>
+      </c>
+      <c r="V7" s="14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.98</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -3796,7 +3853,7 @@
       <c r="W8" s="13"/>
       <c r="X8" s="13"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="390" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="4">
-        <f t="shared" ref="C9:S9" si="6">C5</f>
+        <f t="shared" ref="C9:Q9" si="6">C5</f>
         <v>0</v>
       </c>
       <c r="D9" s="4">
@@ -3858,21 +3915,21 @@
       </c>
       <c r="P9" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q9" s="4">
         <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="R9" s="4">
-        <f t="shared" si="6"/>
-        <v>15</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="S9" s="4" t="str">
-        <f t="shared" si="6"/>
+        <f>S5</f>
         <v>a) [-0.5] Wie kommt ihr auf komprimierte Länge = 20 Zeichen? Wenn man oben die Zeichen zählt, ergeben sich 16? Ansonsten richtig gerechnet!
 b) [-0.5] Warum mit 200 bit (1 Byte je Char) verglichen und nicht mit den errechneten 50? Das wäre der eigentliche richtige Vergleich.
-c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432 = 666633...)
+c) [-3] Es sollte für die ursprüngliche Sequenz die Komp.-Rate berechnet werden. Außerdem geht nicht hervor, was mit den darunter angeführten Sequenzen/Patterns gemeint ist. Eine Symbolmenge n&gt;2 würde man dadurch erreichen, dass man nicht nur die Anzahl der Zeichen, sondern auch das Zeichen selbst mitgeben muss. (z.B. 6432... = 666633...)
 d) Bitte die richtigen Worte verwenden: Variablen=Zeichen? Clustering=Homogenität?</v>
       </c>
       <c r="T9" s="14">
@@ -3881,11 +3938,11 @@
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="5"/>
-        <v>0.83333333333333337</v>
+        <v>0.93333333333333335</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
@@ -3935,9 +3992,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L10" s="14" t="str">
-        <f t="shared" si="7"/>
-        <v>Vergleich über Filegröße?</v>
+      <c r="L10" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="7"/>
@@ -3982,38 +4039,99 @@
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="180" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
+      <c r="B11" s="4">
+        <f>B7</f>
+        <v>6</v>
+      </c>
+      <c r="C11" s="4">
+        <f t="shared" ref="C11:S11" si="8">C7</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
       <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="G11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>b) [-1] Beim Differenzbild kommt es zum Underflow, wodurch das Ergebnis stark verfälscht wird. Man müsste den Betrag der Differenz nehmen. (-1 wird sonst z.B. zu 255 --&gt; total weiß, trotz kleiner Änderung)
+Sonst sehr gute Visualisierung mit Zoom!</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="J11" s="14">
+        <f t="shared" si="8"/>
+        <v>35</v>
       </c>
       <c r="K11" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>35</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="8"/>
+        <v>7.5</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="8"/>
+        <v>25</v>
       </c>
       <c r="R11" s="4">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="8"/>
+        <v>24.5</v>
+      </c>
+      <c r="S11" s="4" t="str">
+        <f t="shared" si="8"/>
+        <v>b) [-0.5] Mittlere Codewortlänge leicht falsch: c benötigt 3 bit, und damit 3 * 0,08 --&gt; insgesamt also 1,8 mittlere Codewortlänge.</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="14" t="e">
+        <v>73.5</v>
+      </c>
+      <c r="V11" s="14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.98</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
     </row>
-    <row r="12" spans="1:24" ht="150" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4022,63 +4140,63 @@
         <v>6</v>
       </c>
       <c r="C12" s="4">
-        <f t="shared" ref="C12:S12" si="8">C6</f>
+        <f t="shared" ref="C12:Q12" si="9">C6</f>
         <v>6</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="G12" s="4">
-        <f t="shared" si="8"/>
-        <v>0</v>
+      <c r="G12" s="4" t="str">
+        <f t="shared" si="9"/>
+        <v>b) [-2] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit xRatio (valueA) und einmal mit 1 - xRatio (valueB) sodass die Gewichte auf 1.00 summieren. Außerdem: Warum valueB-valueC bzw. valueD-valueC? Gleiches bei yInterpol. Ansonsten aber korrekter Aufbau!</v>
       </c>
       <c r="H12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="I12" s="14">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="9"/>
+        <v>10</v>
       </c>
       <c r="J12" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35</v>
       </c>
       <c r="K12" s="14">
-        <f t="shared" si="8"/>
-        <v>35</v>
+        <f t="shared" si="9"/>
+        <v>25</v>
       </c>
       <c r="L12" s="14" t="str">
-        <f t="shared" si="8"/>
-        <v>Nur theoretisch? Filegröße?</v>
+        <f t="shared" si="9"/>
+        <v xml:space="preserve">b) [-10] Nur theoretisch? </v>
       </c>
       <c r="M12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="N12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="P12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.5</v>
       </c>
       <c r="Q12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25</v>
       </c>
       <c r="R12" s="4">
@@ -4086,7 +4204,7 @@
         <v>20.5</v>
       </c>
       <c r="S12" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f>S6</f>
         <v>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
 d) [-3] Entropie nicht berechnet
 [-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</v>
@@ -4097,42 +4215,84 @@
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>70.5</v>
+        <v>60.5</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="5"/>
-        <v>0.94</v>
+        <v>0.80666666666666664</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="4">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>15</v>
+      </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>13.5</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H13" s="14">
+        <v>15</v>
+      </c>
+      <c r="I13" s="14">
+        <v>20</v>
+      </c>
+      <c r="J13" s="14">
+        <v>35</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>35</v>
+      </c>
+      <c r="M13" s="4">
+        <v>5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>7</v>
+      </c>
+      <c r="O13" s="4">
+        <v>5</v>
+      </c>
+      <c r="P13" s="4">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>25</v>
       </c>
       <c r="R13" s="4">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="14" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>71.5</v>
+      </c>
+      <c r="V13" s="14">
+        <f>U13/T13</f>
+        <v>0.95333333333333337</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -4146,63 +4306,63 @@
         <v>6</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:S14" si="9">C3</f>
+        <f t="shared" ref="C14:S14" si="10">C3</f>
         <v>6</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.5</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.5</v>
       </c>
       <c r="G14" s="4" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? 3x mit Gewichten multiplizieren + addieren!</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>15</v>
       </c>
       <c r="I14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="J14" s="14">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>35</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L14" s="14" t="str">
-        <f t="shared" si="9"/>
-        <v>b) Nur Zahlen-Bilder verwendet?</v>
+      <c r="L14" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
       <c r="M14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="N14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="P14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="Q14" s="4">
-        <f t="shared" si="9"/>
+        <f>Q3</f>
         <v>25</v>
       </c>
       <c r="R14" s="4">
@@ -4210,7 +4370,7 @@
         <v>25</v>
       </c>
       <c r="S14" s="4">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T14" s="14">
@@ -4228,25 +4388,95 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="240" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
+      <c r="B15" s="4">
+        <f>B13</f>
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:S15" si="11">C13</f>
+        <v>4.5</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
       <c r="F15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="11"/>
+        <v>13.5</v>
+      </c>
+      <c r="G15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v xml:space="preserve">b) [-1.5] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit dem Gewicht (XB,YA) und einmal mit 1 - Gewicht (XA,YA) sodass die Gewichte auf 1.00 summieren. </v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="I15" s="14">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="J15" s="14">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="K15" s="14">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="N15" s="4">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="O15" s="4">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="P15" s="4">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="Q15" s="4">
+        <f t="shared" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="R15" s="4">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="S15" s="4" t="str">
+        <f t="shared" si="11"/>
+        <v>b) [-1] Maximale Kompressionsrate bei Huffman-Encoding ist wenn nur ein Buchstabe verwendet wird, bei größerem Alphabet.
+c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine Lösung wäre z.B. das Zeichen zusätzlich zur Anzahl anzugeben. z.B. 6432... = 666633...
+d) Log10 statt Log2 verwendet, ansonsten korrekt. Richtiges Ergebnis wäre ~2.3 und nicht 0.69.</v>
       </c>
       <c r="T15" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" ref="T15" si="12">Q15+J15+E15</f>
+        <v>75</v>
       </c>
       <c r="U15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="14" t="e">
+        <f t="shared" ref="U15" si="13">R15+K15+F15</f>
+        <v>71.5</v>
+      </c>
+      <c r="V15" s="14">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.95333333333333337</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>

--- a/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
+++ b/FH/Tutorium/SBV/UE_2/SBV_UE02.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Git\Development\FH\Tutorium\SBV\UE_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\P42549\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA1D336-5C10-4F19-997A-FA1569A03C71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF19B24E-DFD4-44AE-B337-B81906E43C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="2490" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="2" xr2:uid="{933D98FB-FEB6-4BBF-84D7-D88FDCEFBD74}"/>
   </bookViews>
   <sheets>
     <sheet name="1a" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="64">
   <si>
     <t>Julian Buchgeher</t>
   </si>
@@ -194,22 +194,10 @@
     <t>d</t>
   </si>
   <si>
-    <t>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
-[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied und auch nirgends die Größe in px.</t>
-  </si>
-  <si>
     <t>c) [-0.5] "Es muss ein komplett neuer Wert berechnet werden" --&gt; Wie komplex? 3x mit Gewichten multiplizieren + addieren!</t>
   </si>
   <si>
-    <t>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
-d) [-3] Entropie nicht berechnet
-[-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</t>
-  </si>
-  <si>
     <t>b) [-2] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit xRatio (valueA) und einmal mit 1 - xRatio (valueB) sodass die Gewichte auf 1.00 summieren. Außerdem: Warum valueB-valueC bzw. valueD-valueC? Gleiches bei yInterpol. Ansonsten aber korrekter Aufbau!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">b) [-1.5] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit dem Gewicht (XB,YA) und einmal mit 1 - Gewicht (XA,YA) sodass die Gewichte auf 1.00 summieren. </t>
   </si>
   <si>
     <t>a) [-0.5] Wie kommt ihr auf komprimierte Länge = 20 Zeichen? Wenn man oben die Zeichen zählt, ergeben sich 16? Ansonsten richtig gerechnet!
@@ -218,11 +206,6 @@
 d) Bitte die richtigen Worte verwenden: Variablen=Zeichen? Clustering=Homogenität?</t>
   </si>
   <si>
-    <t>b) [-1] Maximale Kompressionsrate bei Huffman-Encoding ist wenn nur ein Buchstabe verwendet wird, bei größerem Alphabet.
-c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine Lösung wäre z.B. das Zeichen zusätzlich zur Anzahl anzugeben. z.B. 6432... = 666633...
-d) Log10 statt Log2 verwendet, ansonsten korrekt. Richtiges Ergebnis wäre ~2.3 und nicht 0.69.</t>
-  </si>
-  <si>
     <t>b) [-1] Beim Differenzbild kommt es zum Underflow, wodurch das Ergebnis stark verfälscht wird. Man müsste den Betrag der Differenz nehmen. (-1 wird sonst z.B. zu 255 --&gt; total weiß, trotz kleiner Änderung)
 Sonst sehr gute Visualisierung mit Zoom!</t>
   </si>
@@ -230,7 +213,47 @@
     <t>b) [-0.5] Mittlere Codewortlänge leicht falsch: c benötigt 3 bit, und damit 3 * 0,08 --&gt; insgesamt also 1,8 mittlere Codewortlänge.</t>
   </si>
   <si>
-    <t xml:space="preserve">b) [-10] Nur theoretisch? </t>
+    <t>Textauswahl gut; 
+a) [-1] Doku inhaltlich ok aber bzgl. Format unlesbar. 
+b) [-3] zu den Bildern: Auswahl ok, aber in Doku Versuchsaufbau nicht ausreichend genau erläutert - es sind die feinen Details die dazu führen können, dass es nicht klappt. Der Bias bzgl. Filegröße ist z.B. problematisch und ev. Interpolationen. Aus Kulanz wurde versucht/erzielt um je 5 Punkte abgesenkt. Da Bilder nicht nachvollziehbar (-3) also 12/15 bei den Bildern</t>
+  </si>
+  <si>
+    <t>b) Paint Größenanpassung gefährlich wegen Interpolation; Testbilder gut gewählt wegen Textur
+analyse bzgl. File-Größe gut und stimmig
+[-5] bzgl. Bild-BSP Versuchsaufbau nicht erkennbar - Bilder nicht mit dabei, daher unklar, ob Kompression der Dateiformate etc. ein Problem darstellt. Aus Kulanz werden versuchte und erzielte Punkte um 5 abgesenkt.</t>
+  </si>
+  <si>
+    <t>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
+d) [-3] Entropie nicht berechnet
+[-0.5] Auch die Homogenität und der Zeichensatz kann entscheidend sein, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</t>
+  </si>
+  <si>
+    <t>a) [-2] Bei den Texten Experimente leider nicht nachvollziehbar (-2)
+b) Bei den Bildern nur theoretische Abhandlung. Es gibt 5 Punkte und versucht/erreicht wird aus Kulanz auf diesen Wert reduziert. (5/5 für diesen Part)</t>
+  </si>
+  <si>
+    <t>Diskussion/Analyse mit guten Ansätzen zur Sprache, aber prinzipiell kann man bei dem BSP 100% Genauigkeit erreichen, wenn man nichts falsch macht. Grundsätzlich also ok.
+a) [-1] Keine BSP Texte mit abgegeben und daher  Experiment nicht nachvollziehbar b) [-2] Bei den Bildern deren Auswahl gut, Beschreibung der Vorverarbeitung klingt gut - jedoch ohne Materialien nicht nachvollziehbar. Aus Kulanz wird versucht und erreicht abgesenkt, d.h. 13/15.</t>
+  </si>
+  <si>
+    <t>BSP mit den Bildern ist ziemlich genial, allerdings mit viel zu viel Aufwand verbunden. Auswertung im Dok könnte besser sein (statistisch). Alles im allem aber sehr gut.</t>
+  </si>
+  <si>
+    <t>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
+[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied bzw. nirgends die Größe in px als "Beweis".</t>
+  </si>
+  <si>
+    <t>c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine mögliche Lösung wäre das Zeichen zusätzlich zur Anzahl anzugeben. z.B. r4d2... = rrrrdd..
+d) Log10 statt Log2 verwendet, ansonsten korrekt. Richtiges Ergebnis wäre ~2.3 und nicht 0.69.</t>
+  </si>
+  <si>
+    <t>[-1] a) Text-BSP gut und solide, allerdings BSP-Text + Übersetzungen nicht vorhanden und Versuchsaufbau daher nicht nachvollziehbar
+[-3] b) Vorverarbeitung gefährlich - Zuschneiden/Resampling führt eventuell zu Interpolation; ohne Bilder schwer nachzuvollziehen, ob alles passt, d.h. unkomprimierte Formate, dieselbe BIT-Tiefe usw...
+Aus Kulanz (für fehlende Files/Nicht-Nachvollziehbarkeit) werden erreichte und versuchte Punkte, um abgesenkt, also 12/15 für die Bilder.</t>
+  </si>
+  <si>
+    <t>[-1] b) Die Differenzbilder sind etwas schwer auswertbar, sofern man nicht weit reinzoomt, weil sie so dunkel sind. Hier wäre eine Kontrastanhebung sinnvoll, auch wenn die Pixelwerte dann nicht mehr die genaue Differenz darstellen.
+Sonst gut ausgearbeitet!</t>
   </si>
 </sst>
 </file>
@@ -3369,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802ED939-0510-445F-BF6B-16C81A4A9779}">
   <dimension ref="A1:X16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3516,7 @@
         <v>14.5</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="14">
         <v>15</v>
@@ -3508,6 +3531,9 @@
         <f>H3+I3</f>
         <v>35</v>
       </c>
+      <c r="L3" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="M3" s="4">
         <v>5</v>
       </c>
@@ -3542,7 +3568,7 @@
       <c r="W3" s="13"/>
       <c r="X3" s="13"/>
     </row>
-    <row r="4" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -3563,20 +3589,23 @@
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="H4" s="14">
         <v>15</v>
       </c>
       <c r="I4" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J4" s="14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" ref="K4:K14" si="1">H4+I4</f>
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>55</v>
       </c>
       <c r="M4" s="4">
         <v>5</v>
@@ -3599,15 +3628,15 @@
       </c>
       <c r="T4" s="14">
         <f t="shared" ref="T4:T14" si="3">Q4+J4+E4</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" ref="U4:U14" si="4">R4+K4+F4</f>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" ref="V4:V15" si="5">U4/T4</f>
-        <v>0.97333333333333338</v>
+        <v>0.9</v>
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
@@ -3624,17 +3653,20 @@
         <v>0</v>
       </c>
       <c r="H5" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I5" s="14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J5" s="14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>54</v>
       </c>
       <c r="M5" s="4">
         <v>4.5</v>
@@ -3656,19 +3688,19 @@
         <v>21</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U5" s="14">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="V5" s="14">
         <f t="shared" si="5"/>
-        <v>0.93333333333333335</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="W5" s="13"/>
       <c r="X5" s="13"/>
@@ -3681,7 +3713,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="4">
         <v>3</v>
@@ -3691,26 +3723,26 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H6" s="14">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I6" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J6" s="14">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M6" s="4">
         <v>5</v>
@@ -3732,24 +3764,24 @@
         <v>20.5</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="4"/>
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="5"/>
-        <v>0.80666666666666664</v>
+        <v>0.85833333333333328</v>
       </c>
       <c r="W6" s="13"/>
       <c r="X6" s="13"/>
     </row>
-    <row r="7" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -3770,20 +3802,23 @@
         <v>14</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H7" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I7" s="14">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J7" s="14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>27</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="M7" s="4">
         <v>5</v>
@@ -3805,19 +3840,19 @@
         <v>24.5</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="4"/>
-        <v>73.5</v>
+        <v>65.5</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.93571428571428572</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
@@ -3883,23 +3918,25 @@
       </c>
       <c r="H9" s="14">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="6"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="6"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="6"/>
-        <v>35</v>
-      </c>
-      <c r="L9" s="14">
+        <v>26</v>
+      </c>
+      <c r="L9" s="14" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>Textauswahl gut; 
+a) [-1] Doku inhaltlich ok aber bzgl. Format unlesbar. 
+b) [-3] zu den Bildern: Auswahl ok, aber in Doku Versuchsaufbau nicht ausreichend genau erläutert - es sind die feinen Details die dazu führen können, dass es nicht klappt. Der Bias bzgl. Filegröße ist z.B. problematisch und ev. Interpolationen. Aus Kulanz wurde versucht/erzielt um je 5 Punkte abgesenkt. Da Bilder nicht nachvollziehbar (-3) also 12/15 bei den Bildern</v>
       </c>
       <c r="M9" s="4">
         <f t="shared" si="6"/>
@@ -3934,20 +3971,20 @@
       </c>
       <c r="T9" s="14">
         <f t="shared" si="3"/>
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="4"/>
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="5"/>
-        <v>0.93333333333333335</v>
+        <v>0.8545454545454545</v>
       </c>
       <c r="W9" s="13"/>
       <c r="X9" s="13"/>
     </row>
-    <row r="10" spans="1:24" ht="165" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="210" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3974,7 +4011,7 @@
       <c r="G10" s="4" t="str">
         <f t="shared" si="7"/>
         <v>b) [-1] Nur ein Bild dokumentiert. --&gt; Warum andere nur erwähnt? Kann ich so leider nicht nachvollziehen.
-[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied und auch nirgends die Größe in px.</v>
+[-1] Nur Vergrößern getestet. Außerdem sieht man auf der Zoomstufe leider keinen Unterschied bzw. nirgends die Größe in px als "Beweis".</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="7"/>
@@ -3982,19 +4019,21 @@
       </c>
       <c r="I10" s="14">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="7"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
-      </c>
-      <c r="L10" s="14">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="L10" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>b) Paint Größenanpassung gefährlich wegen Interpolation; Testbilder gut gewählt wegen Textur
+analyse bzgl. File-Größe gut und stimmig
+[-5] bzgl. Bild-BSP Versuchsaufbau nicht erkennbar - Bilder nicht mit dabei, daher unklar, ob Kompression der Dateiformate etc. ein Problem darstellt. Aus Kulanz werden versuchte und erzielte Punkte um 5 abgesenkt.</v>
       </c>
       <c r="M10" s="4">
         <f t="shared" si="7"/>
@@ -4026,20 +4065,20 @@
       </c>
       <c r="T10" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="4"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="V10" s="14">
         <f t="shared" si="5"/>
-        <v>0.97333333333333338</v>
+        <v>0.9</v>
       </c>
       <c r="W10" s="13"/>
       <c r="X10" s="13"/>
     </row>
-    <row r="11" spans="1:24" ht="180" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="255" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4070,23 +4109,24 @@
       </c>
       <c r="H11" s="14">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="8"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="8"/>
-        <v>35</v>
-      </c>
-      <c r="L11" s="14">
+        <v>27</v>
+      </c>
+      <c r="L11" s="14" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>Diskussion/Analyse mit guten Ansätzen zur Sprache, aber prinzipiell kann man bei dem BSP 100% Genauigkeit erreichen, wenn man nichts falsch macht. Grundsätzlich also ok.
+a) [-1] Keine BSP Texte mit abgegeben und daher  Experiment nicht nachvollziehbar b) [-2] Bei den Bildern deren Auswahl gut, Beschreibung der Vorverarbeitung klingt gut - jedoch ohne Materialien nicht nachvollziehbar. Aus Kulanz wird versucht und erreicht abgesenkt, d.h. 13/15.</v>
       </c>
       <c r="M11" s="4">
         <f t="shared" si="8"/>
@@ -4118,15 +4158,15 @@
       </c>
       <c r="T11" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="4"/>
-        <v>73.5</v>
+        <v>65.5</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="5"/>
-        <v>0.98</v>
+        <v>0.93571428571428572</v>
       </c>
       <c r="W11" s="13"/>
       <c r="X11" s="13"/>
@@ -4141,7 +4181,7 @@
       </c>
       <c r="C12" s="4">
         <f t="shared" ref="C12:Q12" si="9">C6</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" si="9"/>
@@ -4153,7 +4193,7 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12" s="4" t="str">
         <f t="shared" si="9"/>
@@ -4161,23 +4201,24 @@
       </c>
       <c r="H12" s="14">
         <f t="shared" si="9"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="9"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="9"/>
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="9"/>
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="L12" s="14" t="str">
         <f t="shared" si="9"/>
-        <v xml:space="preserve">b) [-10] Nur theoretisch? </v>
+        <v>a) [-2] Bei den Texten Experimente leider nicht nachvollziehbar (-2)
+b) Bei den Bildern nur theoretische Abhandlung. Es gibt 5 Punkte und versucht/erreicht wird aus Kulanz auf diesen Wert reduziert. (5/5 für diesen Part)</v>
       </c>
       <c r="M12" s="4">
         <f t="shared" si="9"/>
@@ -4207,24 +4248,24 @@
         <f>S6</f>
         <v>b) [-1] Bei der Kompressionsrate müsste man von 2 bit (4 Zeichen) im Normalfall ausgehen und nicht 1 Byte.  
 d) [-3] Entropie nicht berechnet
-[-0.5] Auch die Homogenität und der Zeichensatz ist entscheidend, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</v>
+[-0.5] Auch die Homogenität und der Zeichensatz kann entscheidend sein, wie etwas weiter oben erwähnt wurde. (Ziehe deswegen etwas weniger ab)</v>
       </c>
       <c r="T12" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="4"/>
-        <v>60.5</v>
+        <v>51.5</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="5"/>
-        <v>0.80666666666666664</v>
+        <v>0.85833333333333328</v>
       </c>
       <c r="W12" s="13"/>
       <c r="X12" s="13"/>
     </row>
-    <row r="13" spans="1:24" ht="240" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4232,7 +4273,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="4">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D13" s="4">
         <v>3</v>
@@ -4242,29 +4283,32 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" si="0"/>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="H13" s="14">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I13" s="14">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J13" s="14">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>62</v>
       </c>
       <c r="M13" s="4">
         <v>5</v>
       </c>
       <c r="N13" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O13" s="4">
         <v>5</v>
@@ -4277,22 +4321,22 @@
       </c>
       <c r="R13" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>71.5</v>
+        <v>64</v>
       </c>
       <c r="V13" s="14">
         <f>U13/T13</f>
-        <v>0.95333333333333337</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="W13" s="13"/>
       <c r="X13" s="13"/>
@@ -4341,9 +4385,9 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="L14" s="14">
-        <f t="shared" si="10"/>
-        <v>0</v>
+      <c r="L14" s="14" t="str">
+        <f t="shared" si="10"/>
+        <v>BSP mit den Bildern ist ziemlich genial, allerdings mit viel zu viel Aufwand verbunden. Auswertung im Dok könnte besser sein (statistisch). Alles im allem aber sehr gut.</v>
       </c>
       <c r="M14" s="4">
         <f t="shared" si="10"/>
@@ -4388,7 +4432,7 @@
       <c r="W14" s="13"/>
       <c r="X14" s="13"/>
     </row>
-    <row r="15" spans="1:24" ht="240" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="270" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4397,8 +4441,8 @@
         <v>6</v>
       </c>
       <c r="C15" s="4">
-        <f t="shared" ref="C15:S15" si="11">C13</f>
-        <v>4.5</v>
+        <f t="shared" ref="C15:Q15" si="11">C13</f>
+        <v>5</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" si="11"/>
@@ -4410,31 +4454,34 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" si="11"/>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="G15" s="4" t="str">
         <f t="shared" si="11"/>
-        <v xml:space="preserve">b) [-1.5] Formel für bilineare Interpolation nicht richtig. Es müssen beide Seiten gewichtet werden: Einmal mit dem Gewicht (XB,YA) und einmal mit 1 - Gewicht (XA,YA) sodass die Gewichte auf 1.00 summieren. </v>
+        <v>[-1] b) Die Differenzbilder sind etwas schwer auswertbar, sofern man nicht weit reinzoomt, weil sie so dunkel sind. Hier wäre eine Kontrastanhebung sinnvoll, auch wenn die Pixelwerte dann nicht mehr die genaue Differenz darstellen.
+Sonst gut ausgearbeitet!</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="11"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="11"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="11"/>
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="11"/>
-        <v>35</v>
-      </c>
-      <c r="L15" s="14">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="L15" s="14" t="str">
+        <f t="shared" si="11"/>
+        <v>[-1] a) Text-BSP gut und solide, allerdings BSP-Text + Übersetzungen nicht vorhanden und Versuchsaufbau daher nicht nachvollziehbar
+[-3] b) Vorverarbeitung gefährlich - Zuschneiden/Resampling führt eventuell zu Interpolation; ohne Bilder schwer nachzuvollziehen, ob alles passt, d.h. unkomprimierte Formate, dieselbe BIT-Tiefe usw...
+Aus Kulanz (für fehlende Files/Nicht-Nachvollziehbarkeit) werden erreichte und versuchte Punkte, um abgesenkt, also 12/15 für die Bilder.</v>
       </c>
       <c r="M15" s="4">
         <f t="shared" si="11"/>
@@ -4442,7 +4489,7 @@
       </c>
       <c r="N15" s="4">
         <f t="shared" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O15" s="4">
         <f t="shared" si="11"/>
@@ -4458,25 +4505,24 @@
       </c>
       <c r="R15" s="4">
         <f t="shared" si="2"/>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="4" t="str">
-        <f t="shared" si="11"/>
-        <v>b) [-1] Maximale Kompressionsrate bei Huffman-Encoding ist wenn nur ein Buchstabe verwendet wird, bei größerem Alphabet.
-c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine Lösung wäre z.B. das Zeichen zusätzlich zur Anzahl anzugeben. z.B. 6432... = 666633...
+        <f>S13</f>
+        <v>c) [-1] Keine funktionierende Erweiterung für n&gt;2, wie bereits im Text beschrieben wurde. Eine mögliche Lösung wäre das Zeichen zusätzlich zur Anzahl anzugeben. z.B. r4d2... = rrrrdd..
 d) Log10 statt Log2 verwendet, ansonsten korrekt. Richtiges Ergebnis wäre ~2.3 und nicht 0.69.</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" ref="T15" si="12">Q15+J15+E15</f>
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" ref="U15" si="13">R15+K15+F15</f>
-        <v>71.5</v>
+        <v>64</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="5"/>
-        <v>0.95333333333333337</v>
+        <v>0.91428571428571426</v>
       </c>
       <c r="W15" s="13"/>
       <c r="X15" s="13"/>
